--- a/Tables/SS.xlsx
+++ b/Tables/SS.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20E87DA-46E9-4F08-917D-B0371C854A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9522FD-1D42-4342-8AC6-A64F93B9C047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-8100" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DDC5E293-EDB8-4005-A2FB-235A67631FB3}"/>
+    <workbookView xWindow="-18555" yWindow="-4980" windowWidth="14400" windowHeight="8175" activeTab="2" xr2:uid="{DDC5E293-EDB8-4005-A2FB-235A67631FB3}"/>
   </bookViews>
   <sheets>
     <sheet name="SS_2" sheetId="2" r:id="rId1"/>
     <sheet name="SS_1" sheetId="1" r:id="rId2"/>
+    <sheet name="SS_0" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
   <si>
     <t>Agropecuario</t>
   </si>
@@ -202,6 +204,27 @@
   </si>
   <si>
     <t>(8)</t>
+  </si>
+  <si>
+    <t>[2000-2004]</t>
+  </si>
+  <si>
+    <t>[2005-2010]</t>
+  </si>
+  <si>
+    <t>[2010-2020]</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Informal Hussmann</t>
+  </si>
+  <si>
+    <t>Informal INEGI</t>
+  </si>
+  <si>
+    <t>Panel A : Share of labor force with</t>
   </si>
 </sst>
 </file>
@@ -225,7 +248,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -273,11 +296,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -303,10 +337,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1823,6 +1864,102 @@
           </cell>
           <cell r="I67" t="str">
             <v>[0.000]</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v/>
+          </cell>
+          <cell r="C1" t="str">
+            <v>(1)</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>(2)</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>(3)</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4" t="str">
+            <v>10838453</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>0.592</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>19018657</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>0.582</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>7393117</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>0.284</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>10838453</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>0.280</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>19018657</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>0.279</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>2613308</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>0.215</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>10769402</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>0.728</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>18919508</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v>0.707</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10" t="str">
+            <v>4483629</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>0.969</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>7820219</v>
+          </cell>
+          <cell r="G10" t="str">
+            <v>0.939</v>
           </cell>
         </row>
       </sheetData>
@@ -2148,19 +2285,19 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
@@ -2230,17 +2367,17 @@
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -3469,8 +3606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2446378B-11F1-4BFD-B513-C279213AE862}">
   <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="A2:K29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3487,19 +3624,19 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
@@ -3569,17 +3706,17 @@
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -3856,17 +3993,17 @@
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
     </row>
     <row r="17" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
@@ -4376,4 +4513,188 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492B3CD1-942B-479B-A390-BFEEB7BE96F5}">
+  <dimension ref="A4:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="str">
+        <f>[3]Sheet1!A1</f>
+        <v/>
+      </c>
+      <c r="B6" s="11" t="str">
+        <f>[3]Sheet1!C1</f>
+        <v>(1)</v>
+      </c>
+      <c r="C6" s="11" t="str">
+        <f>[3]Sheet1!E1</f>
+        <v>(2)</v>
+      </c>
+      <c r="D6" s="11" t="str">
+        <f>[3]Sheet1!G1</f>
+        <v>(3)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>[3]Sheet1!E4</f>
+        <v>0.592</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>[3]Sheet1!G4</f>
+        <v>0.582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>[3]Sheet1!D4</f>
+        <v>10838453</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>[3]Sheet1!F4</f>
+        <v>19018657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="7" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f>[3]Sheet1!C6</f>
+        <v>0.284</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>[3]Sheet1!E6</f>
+        <v>0.280</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>[3]Sheet1!G6</f>
+        <v>0.279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="str">
+        <f>[3]Sheet1!B6</f>
+        <v>7393117</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>[3]Sheet1!D6</f>
+        <v>10838453</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f>[3]Sheet1!F6</f>
+        <v>19018657</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="8.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f>[3]Sheet1!C8</f>
+        <v>0.215</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>[3]Sheet1!E8</f>
+        <v>0.728</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>[3]Sheet1!G8</f>
+        <v>0.707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="str">
+        <f>[3]Sheet1!B8</f>
+        <v>2613308</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>[3]Sheet1!D8</f>
+        <v>10769402</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f>[3]Sheet1!F8</f>
+        <v>18919508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f>[3]Sheet1!E10</f>
+        <v>0.969</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f>[3]Sheet1!G10</f>
+        <v>0.939</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f>[3]Sheet1!D10</f>
+        <v>4483629</v>
+      </c>
+      <c r="D17" s="4" t="str">
+        <f>[3]Sheet1!F10</f>
+        <v>7820219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tables/SS.xlsx
+++ b/Tables/SS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C89124F-776A-4BF3-B4F0-BA7FEDBD91D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7A6D3B-7F67-4571-B55B-3263CD4551BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" xr2:uid="{DDC5E293-EDB8-4005-A2FB-235A67631FB3}"/>
+    <workbookView xWindow="-17505" yWindow="-5325" windowWidth="14400" windowHeight="12480" xr2:uid="{DDC5E293-EDB8-4005-A2FB-235A67631FB3}"/>
   </bookViews>
   <sheets>
     <sheet name="SS_0" sheetId="3" r:id="rId1"/>

--- a/Tables/SS.xlsx
+++ b/Tables/SS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7A6D3B-7F67-4571-B55B-3263CD4551BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAECEEAB-7CCF-4C3A-BE0D-9D30EBC2FB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17505" yWindow="-5325" windowWidth="14400" windowHeight="12480" xr2:uid="{DDC5E293-EDB8-4005-A2FB-235A67631FB3}"/>
+    <workbookView xWindow="-15510" yWindow="-4785" windowWidth="14400" windowHeight="8175" xr2:uid="{DDC5E293-EDB8-4005-A2FB-235A67631FB3}"/>
   </bookViews>
   <sheets>
     <sheet name="SS_0" sheetId="3" r:id="rId1"/>
@@ -201,13 +201,13 @@
         </row>
         <row r="4">
           <cell r="D4" t="str">
-            <v>108266576</v>
+            <v>1.08e+09</v>
           </cell>
           <cell r="E4" t="str">
-            <v>0.594</v>
+            <v>0.595</v>
           </cell>
           <cell r="F4" t="str">
-            <v>99646744</v>
+            <v>991520597</v>
           </cell>
           <cell r="G4" t="str">
             <v>0.591</v>
@@ -215,63 +215,63 @@
         </row>
         <row r="5">
           <cell r="D5">
-            <v>408257</v>
+            <v>4080591</v>
           </cell>
           <cell r="F5">
-            <v>336745</v>
+            <v>3359681</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>25578827</v>
+            <v>256907371</v>
           </cell>
           <cell r="C6" t="str">
-            <v>0.218</v>
+            <v>0.220</v>
           </cell>
           <cell r="D6" t="str">
-            <v>107667269</v>
+            <v>1.08e+09</v>
           </cell>
           <cell r="E6" t="str">
-            <v>0.729</v>
+            <v>0.730</v>
           </cell>
           <cell r="F6" t="str">
-            <v>99125549</v>
+            <v>986199081</v>
           </cell>
           <cell r="G6" t="str">
-            <v>0.717</v>
+            <v>0.718</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>170535</v>
+            <v>1705253</v>
           </cell>
           <cell r="D7">
-            <v>406076</v>
+            <v>4058685</v>
           </cell>
           <cell r="F7">
-            <v>335060</v>
+            <v>3342419</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8" t="str">
-            <v>44700448</v>
+            <v>447076824</v>
           </cell>
           <cell r="E8" t="str">
             <v>0.972</v>
           </cell>
           <cell r="F8" t="str">
-            <v>40854915</v>
+            <v>406802632</v>
           </cell>
           <cell r="G8" t="str">
-            <v>0.951</v>
+            <v>0.953</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
-            <v>167037</v>
+            <v>1669329</v>
           </cell>
           <cell r="F9">
-            <v>137203</v>
+            <v>1368900</v>
           </cell>
         </row>
       </sheetData>
@@ -579,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492B3CD1-942B-479B-A390-BFEEB7BE96F5}">
   <dimension ref="A4:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:D17"/>
     </sheetView>
   </sheetViews>
@@ -635,7 +635,7 @@
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]Sheet1!E4</f>
-        <v>0.594</v>
+        <v>0.595</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>[1]Sheet1!G4</f>
@@ -651,11 +651,11 @@
       </c>
       <c r="C8" s="1">
         <f>[1]Sheet1!$D$5</f>
-        <v>408257</v>
+        <v>4080591</v>
       </c>
       <c r="D8" s="1">
         <f>[1]Sheet1!$F$5</f>
-        <v>336745</v>
+        <v>3359681</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -667,11 +667,11 @@
       </c>
       <c r="C9" s="1" t="str">
         <f>[1]Sheet1!D4</f>
-        <v>108266576</v>
+        <v>1.08e+09</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>[1]Sheet1!F4</f>
-        <v>99646744</v>
+        <v>991520597</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -680,15 +680,15 @@
       </c>
       <c r="B11" s="1" t="str">
         <f>[1]Sheet1!C6</f>
-        <v>0.218</v>
+        <v>0.220</v>
       </c>
       <c r="C11" s="1" t="str">
         <f>[1]Sheet1!E6</f>
-        <v>0.729</v>
+        <v>0.730</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>[1]Sheet1!G6</f>
-        <v>0.717</v>
+        <v>0.718</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -697,15 +697,15 @@
       </c>
       <c r="B12" s="1">
         <f>[1]Sheet1!$B$7</f>
-        <v>170535</v>
+        <v>1705253</v>
       </c>
       <c r="C12" s="1">
         <f>[1]Sheet1!$D$7</f>
-        <v>406076</v>
+        <v>4058685</v>
       </c>
       <c r="D12" s="1">
         <f>[1]Sheet1!$F$7</f>
-        <v>335060</v>
+        <v>3342419</v>
       </c>
       <c r="E12" s="1"/>
       <c r="G12" s="1"/>
@@ -716,15 +716,15 @@
       </c>
       <c r="B13" s="1" t="str">
         <f>[1]Sheet1!B6</f>
-        <v>25578827</v>
+        <v>256907371</v>
       </c>
       <c r="C13" s="1" t="str">
         <f>[1]Sheet1!D6</f>
-        <v>107667269</v>
+        <v>1.08e+09</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>[1]Sheet1!F6</f>
-        <v>99125549</v>
+        <v>986199081</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -740,7 +740,7 @@
       </c>
       <c r="D15" s="1" t="str">
         <f>[1]Sheet1!G8</f>
-        <v>0.951</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -752,11 +752,11 @@
       </c>
       <c r="C16" s="1">
         <f>[1]Sheet1!$D$9</f>
-        <v>167037</v>
+        <v>1669329</v>
       </c>
       <c r="D16" s="1">
         <f>[1]Sheet1!$F$9</f>
-        <v>137203</v>
+        <v>1368900</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -768,11 +768,11 @@
       </c>
       <c r="C17" s="3" t="str">
         <f>[1]Sheet1!D8</f>
-        <v>44700448</v>
+        <v>447076824</v>
       </c>
       <c r="D17" s="3" t="str">
         <f>[1]Sheet1!F8</f>
-        <v>40854915</v>
+        <v>406802632</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>

--- a/Tables/SS.xlsx
+++ b/Tables/SS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAECEEAB-7CCF-4C3A-BE0D-9D30EBC2FB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7561B1D-7910-43B7-BE54-ADD1716C3006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15510" yWindow="-4785" windowWidth="14400" windowHeight="8175" xr2:uid="{DDC5E293-EDB8-4005-A2FB-235A67631FB3}"/>
+    <workbookView xWindow="-18570" yWindow="-6120" windowWidth="13245" windowHeight="11760" xr2:uid="{DDC5E293-EDB8-4005-A2FB-235A67631FB3}"/>
   </bookViews>
   <sheets>
     <sheet name="SS_0" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>No IMSS</t>
   </si>
@@ -46,13 +46,7 @@
     <t>No SAT</t>
   </si>
   <si>
-    <t>[2000-2004]</t>
-  </si>
-  <si>
     <t>[2005-2010]</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Informal INEGI</t>
@@ -195,82 +189,61 @@
           <cell r="E1" t="str">
             <v>(2)</v>
           </cell>
-          <cell r="G1" t="str">
-            <v>(3)</v>
-          </cell>
         </row>
         <row r="4">
+          <cell r="B4" t="str">
+            <v>1.08e+09</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>0.595</v>
+          </cell>
           <cell r="D4" t="str">
-            <v>1.08e+09</v>
+            <v>991520597</v>
           </cell>
           <cell r="E4" t="str">
-            <v>0.595</v>
-          </cell>
-          <cell r="F4" t="str">
-            <v>991520597</v>
-          </cell>
-          <cell r="G4" t="str">
             <v>0.591</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>4080591</v>
-          </cell>
-          <cell r="F5">
             <v>3359681</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>256907371</v>
+            <v>1.08e+09</v>
           </cell>
           <cell r="C6" t="str">
-            <v>0.220</v>
+            <v>0.730</v>
           </cell>
           <cell r="D6" t="str">
-            <v>1.08e+09</v>
+            <v>986199081</v>
           </cell>
           <cell r="E6" t="str">
-            <v>0.730</v>
-          </cell>
-          <cell r="F6" t="str">
-            <v>986199081</v>
-          </cell>
-          <cell r="G6" t="str">
             <v>0.718</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="B7">
-            <v>1705253</v>
-          </cell>
           <cell r="D7">
-            <v>4058685</v>
-          </cell>
-          <cell r="F7">
             <v>3342419</v>
           </cell>
         </row>
         <row r="8">
+          <cell r="B8" t="str">
+            <v>447076824</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>0.972</v>
+          </cell>
           <cell r="D8" t="str">
-            <v>447076824</v>
+            <v>406802632</v>
           </cell>
           <cell r="E8" t="str">
-            <v>0.972</v>
-          </cell>
-          <cell r="F8" t="str">
-            <v>406802632</v>
-          </cell>
-          <cell r="G8" t="str">
             <v>0.953</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
-            <v>1669329</v>
-          </cell>
-          <cell r="F9">
             <v>1368900</v>
           </cell>
         </row>
@@ -577,38 +550,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492B3CD1-942B-479B-A390-BFEEB7BE96F5}">
-  <dimension ref="A4:G18"/>
+  <dimension ref="A4:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6"/>
       <c r="B4" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="str">
         <f>[1]Sheet1!A1</f>
         <v/>
@@ -621,164 +590,130 @@
         <f>[1]Sheet1!E1</f>
         <v>(2)</v>
       </c>
-      <c r="D6" s="5" t="str">
-        <f>[1]Sheet1!G1</f>
-        <v>(3)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f>[1]Sheet1!C4</f>
+        <v>0.595</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]Sheet1!E4</f>
-        <v>0.595</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f>[1]Sheet1!G4</f>
         <v>0.591</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <f>[1]Sheet1!$D$5</f>
+        <v>3359681</v>
       </c>
       <c r="C8" s="1">
         <f>[1]Sheet1!$D$5</f>
-        <v>4080591</v>
-      </c>
-      <c r="D8" s="1">
-        <f>[1]Sheet1!$F$5</f>
         <v>3359681</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f>[1]Sheet1!B4</f>
+        <v>1.08e+09</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>[1]Sheet1!D4</f>
-        <v>1.08e+09</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f>[1]Sheet1!F4</f>
         <v>991520597</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="1" t="str">
         <f>[1]Sheet1!C6</f>
-        <v>0.220</v>
+        <v>0.730</v>
       </c>
       <c r="C11" s="1" t="str">
         <f>[1]Sheet1!E6</f>
-        <v>0.730</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f>[1]Sheet1!G6</f>
         <v>0.718</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1">
-        <f>[1]Sheet1!$B$7</f>
-        <v>1705253</v>
+        <f>[1]Sheet1!$D$7</f>
+        <v>3342419</v>
       </c>
       <c r="C12" s="1">
         <f>[1]Sheet1!$D$7</f>
-        <v>4058685</v>
-      </c>
-      <c r="D12" s="1">
-        <f>[1]Sheet1!$F$7</f>
         <v>3342419</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="str">
         <f>[1]Sheet1!B6</f>
-        <v>256907371</v>
+        <v>1.08e+09</v>
       </c>
       <c r="C13" s="1" t="str">
         <f>[1]Sheet1!D6</f>
-        <v>1.08e+09</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f>[1]Sheet1!F6</f>
         <v>986199081</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
+      <c r="B15" s="1" t="str">
+        <f>[1]Sheet1!C8</f>
+        <v>0.972</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>[1]Sheet1!E8</f>
-        <v>0.972</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f>[1]Sheet1!G8</f>
         <v>0.953</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <f>[1]Sheet1!$D$9</f>
+        <v>1368900</v>
       </c>
       <c r="C16" s="1">
         <f>[1]Sheet1!$D$9</f>
-        <v>1669329</v>
-      </c>
-      <c r="D16" s="1">
-        <f>[1]Sheet1!$F$9</f>
         <v>1368900</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f>[1]Sheet1!B8</f>
+        <v>447076824</v>
       </c>
       <c r="C17" s="3" t="str">
         <f>[1]Sheet1!D8</f>
-        <v>447076824</v>
-      </c>
-      <c r="D17" s="3" t="str">
-        <f>[1]Sheet1!F8</f>
         <v>406802632</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
